--- a/uploads/excel/smallOrder.xlsx
+++ b/uploads/excel/smallOrder.xlsx
@@ -1332,5 +1332,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{696CA627-B3C4-497C-95F0-9B03C084A6F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB40771B-6AEE-4A81-B6E7-0D80D2C44648}"/>
 </file>
--- a/uploads/excel/smallOrder.xlsx
+++ b/uploads/excel/smallOrder.xlsx
@@ -1332,5 +1332,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB40771B-6AEE-4A81-B6E7-0D80D2C44648}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C935664-B72C-4D74-B4F2-882FD1511580}"/>
 </file>